--- a/quest_dc_01_0000/quest_dc_02_0000/data/pbmc_01_all.xlsx
+++ b/quest_dc_01_0000/quest_dc_02_0000/data/pbmc_01_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Documents/023_20210225_001_2021年関西科学塾/hp/opening_0000/opening_0010/opening_0020/opening_0030/quest_dc_01_0000/quest_dc_02_0000/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_01_0000/quest_dc_02_0000/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F398437-07E8-1945-8B2E-5F9BCCC62CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57D05F-C1B7-5E45-AEE1-12267FF0B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="8760" windowWidth="26360" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t/>
   </si>
   <si>
-    <t>CD2</t>
-  </si>
-  <si>
     <t>S100A8</t>
   </si>
   <si>
@@ -38,12 +35,6 @@
   </si>
   <si>
     <t>CD79A</t>
-  </si>
-  <si>
-    <t>NKG7</t>
-  </si>
-  <si>
-    <t>CD14</t>
   </si>
   <si>
     <t>Cell_1</t>
@@ -390,139 +381,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>155</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>155</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>171</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
         <v>30</v>
       </c>
     </row>

--- a/quest_dc_01_0000/quest_dc_02_0000/data/pbmc_01_all.xlsx
+++ b/quest_dc_01_0000/quest_dc_02_0000/data/pbmc_01_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_01_0000/quest_dc_02_0000/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57D05F-C1B7-5E45-AEE1-12267FF0B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DDC4B-8CEF-4244-8B8F-2B9F82B4FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="8760" windowWidth="26360" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>S100A8</t>
-  </si>
-  <si>
-    <t>GZMA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CD3D</t>
   </si>
@@ -47,6 +38,12 @@
   </si>
   <si>
     <t>Cell_4</t>
+  </si>
+  <si>
+    <t>CD14</t>
+  </si>
+  <si>
+    <t>NKG7</t>
   </si>
 </sst>
 </file>
@@ -82,9 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,87 +387,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>26</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>155</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>160</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
     </row>
